--- a/data/trans_dic/P16B12-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -705,7 +706,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,85; 100,0</t>
+          <t>61,18; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +721,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,9; 100,0</t>
+          <t>81,01; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>74,97; 97,17</t>
+          <t>73,49; 97,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -935,7 +936,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,98; 98,02</t>
+          <t>82,05; 98,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,04; 100,0</t>
+          <t>94,18; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,7 +1026,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,62; 100,0</t>
+          <t>94,52; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1045,17 +1046,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>95,78; 100,0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>98,57; 100</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>96,02; 100,0</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>98,57; 100</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>95,88; 100,0</t>
         </is>
       </c>
     </row>
@@ -1135,17 +1136,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,07; 100,0</t>
+          <t>91,53; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,92; 100,0</t>
+          <t>74,16; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,97; 100,0</t>
+          <t>93,63; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,7; 100,0</t>
+          <t>85,56; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>93,67; 100,0</t>
+          <t>95,37; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,66; 99,29</t>
+          <t>93,75; 99,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,49; 100,0</t>
+          <t>95,56; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,78; 100,0</t>
+          <t>93,27; 99,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96,37; 100,0</t>
+          <t>95,56; 100,0</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,48; 99,45</t>
+          <t>95,15; 99,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1355,37 +1356,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97,44; 100,0</t>
+          <t>97,13; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93,89; 99,02</t>
+          <t>94,47; 99,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,61; 100,0</t>
+          <t>97,71; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,41; 100,0</t>
+          <t>97,13; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,76; 98,89</t>
+          <t>95,67; 98,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>98,6; 100,0</t>
+          <t>98,78; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>98,11; 99,83</t>
+          <t>98,14; 99,83</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la diabetes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22865</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17174</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30877</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4897</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11024</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12626</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27762</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28199</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43502</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21052; 22865</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15260; 17174</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28776; 30877</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3603; 4897</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7437; 12155</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10795; 12626</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25998; 27762</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23760; 29330</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41425; 43502</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16508</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21847</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23155</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9106</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9961</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22006</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30953</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33116</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14859; 16508</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19959; 21847</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21392; 23155</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3817; 5498</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7216; 9106</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7894; 9961</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20261; 22006</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28986; 30953</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31201; 33116</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25789</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>65330</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50517</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12625</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16048</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10764</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38414</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81378</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61280</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20925; 27673</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>63246; 65330</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>48659; 50517</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10794; 12625</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14149; 16048</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8747; 10764</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33722; 40305</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79300; 81378</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>59357; 61280</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>91095</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>103281</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>105138</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30138</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39356</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27230</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>121233</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>142637</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>132368</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>86728; 92091</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>101240; 103281</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>100283; 106093</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28284; 30138</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>37378; 39356</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25236; 27230</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>117070; 122229</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>140596; 142637</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>128023; 133323</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22177</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34844</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>64277</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27181</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>67022</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>67983</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>49358</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>101866</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>132261</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20343; 22177</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32767; 34844</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>60046; 65606</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21805; 29404</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63581; 67908</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>65850; 67983</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>44135; 51581</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>97994; 102752</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>126981; 133590</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5727</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>118751</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>154420</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>142397</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>119665</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>160147</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>146436</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>209; 914</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3976; 5727</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2575; 4039</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>114069; 120826</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>152405; 154420</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>137325; 143701</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>114342; 121716</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>158126; 160147</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>141173; 147740</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>179348</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>248204</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>278002</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>199089</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>296976</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>270961</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>378438</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>545180</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>548962</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>174150; 182029</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>246124; 248204</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>272229; 280286</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>192939; 202479</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>292131; 298993</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>264443; 272265</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>370497; 383218</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>540537; 547197</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>542262; 551592</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B12-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
